--- a/stats/bryum/month_Y_stats_X1.xlsx
+++ b/stats/bryum/month_Y_stats_X1.xlsx
@@ -1,40 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2096910_ed_ac_uk/Documents/dissertation/dissertation/dissertation/stats/bryum/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_60C6943CF4CF2761BB3111A9862D48F8E3F4F441" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DAB5719-3CCE-904E-8E6E-5AB2355C1C00}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
-    <t xml:space="preserve">Year</t>
+    <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Month</t>
+    <t>Month</t>
   </si>
   <si>
-    <t xml:space="preserve">mean_Y</t>
+    <t>mean_Y</t>
   </si>
   <si>
-    <t xml:space="preserve">max_Y</t>
+    <t>max_Y</t>
   </si>
   <si>
-    <t xml:space="preserve">min_Y</t>
+    <t>min_Y</t>
+  </si>
+  <si>
+    <t>Bryum_X1</t>
+  </si>
+  <si>
+    <t>Bryum_X2</t>
+  </si>
+  <si>
+    <t>Bryum_X4</t>
+  </si>
+  <si>
+    <t>Austroplaca_X3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,13 +82,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -351,304 +383,796 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="14" width="10.83203125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2019</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.8444444444444004E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1.70555555555556E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2019</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.187426075268817</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.532</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C4" s="2">
+        <v>0.18742607526881699</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.366623655913978</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.28912903225806502</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.133180107526882</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2020</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.366442953020134</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C5" s="2">
+        <v>0.36644295302013402</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.37233288590604002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.33690738255033598</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.222794630872483</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.0290862068965518</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C6" s="2">
+        <v>2.9086206896551801E-2</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.38</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.6441091954022899E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.0267241379310599E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>5.9150862068965401E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>2020</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2020</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B8">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.165177419354839</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C8" s="2">
+        <v>0.16517741935483901</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.25369489247311799</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.120564516129032</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.19082795698924801</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>2021</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.35714247311828</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.482</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C9" s="2">
+        <v>0.35714247311828001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.48079032258064502</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.30658467741935502</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.22780376344086001</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B10">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.025596726190476</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C10" s="2">
+        <v>2.5596726190476E-2</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.379</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.9508928571429098E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5.1770833333333304E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.5074404761905102E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2021</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B11">
         <v>11</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.3129359125E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.169230769</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B12">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.186412634408602</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.488</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="C12" s="2">
+        <v>0.18641263440860201</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.40330645161290302</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.27421774193548398</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.622</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.22924122913978501</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.181818548387097</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.463</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="C13" s="2">
+        <v>0.18181854838709699</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.23370564516129</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.26373252688172</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.238112903225806</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>2022</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.8303571428571501E-4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.9169642857142798E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.189</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.3830357142857101E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>2022</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B15">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.9666666666666496E-3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.0836111111111101E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.6708333333333499E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.172930107526882</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C16" s="2">
+        <v>0.17293010752688201</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.505</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.242612903225806</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.213646505376344</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.157638440860215</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B17">
         <v>1</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" s="2">
         <v>0.147439516129032</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.515</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="D17" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.0983870967742098E-2</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>6.5250000000000405E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.119631720430108</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>2023</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/stats/bryum/month_Y_stats_X1.xlsx
+++ b/stats/bryum/month_Y_stats_X1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">min_Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd_Y</t>
   </si>
 </sst>
 </file>
@@ -374,6 +377,9 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -391,6 +397,9 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -408,6 +417,9 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.166198692217897</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -425,6 +437,9 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.101279899511361</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -442,6 +457,9 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.0834792769493125</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -459,6 +477,9 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -476,6 +497,9 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.156931822818004</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -493,6 +517,9 @@
       <c r="E8" t="n">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.0835004605676281</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -510,6 +537,9 @@
       <c r="E9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.0684033329993591</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -527,6 +557,9 @@
       <c r="E10" t="n">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +577,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>0.160463982035225</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -561,6 +597,9 @@
       <c r="E12" t="n">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>0.170848521701164</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -578,6 +617,9 @@
       <c r="E13" t="n">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -595,6 +637,9 @@
       <c r="E14" t="n">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -612,6 +657,9 @@
       <c r="E15" t="n">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.184897972541038</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -629,6 +677,9 @@
       <c r="E16" t="n">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.188302358726025</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -644,6 +695,9 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>0</v>
       </c>
     </row>
